--- a/app/functions/exports/4.xlsx
+++ b/app/functions/exports/4.xlsx
@@ -15,12 +15,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="68">
-  <si>
-    <t>PROPOSTA ALRIGHT</t>
-  </si>
-  <si>
-    <t>OUTRA PRA APAGAR</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="67">
+  <si>
+    <t>PROPOSTA - OUTRA PRA APAGAR</t>
   </si>
   <si>
     <t xml:space="preserve">Agência / Cliente: </t>
@@ -255,19 +252,13 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125">
         <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFcfcfcf"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
@@ -285,7 +276,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF000000"/>
+        <fgColor rgb="FF666666"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
@@ -350,14 +341,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="3" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
@@ -366,28 +360,28 @@
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="4" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="3" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="5" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="4" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="2" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="4" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="3" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="6" borderId="2" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="5" borderId="2" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="3" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="7" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="6" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="7" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="6" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
   </cellXfs>
@@ -397,6 +391,41 @@
   <dxfs count="0"/>
   <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1000125" cy="371475"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1" name="logo_alright" descr="logo_alright"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="0"/>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -709,14 +738,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" customHeight="1" ht="10"/>
-    <row r="2" spans="1:17" customHeight="1" ht="28">
-      <c r="B2" s="1" t="s">
+    <row r="2" spans="1:17" customHeight="1" ht="33">
+      <c r="B2" s="1"/>
+      <c r="C2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="2" t="s">
-        <v>1</v>
-      </c>
+      <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -732,721 +759,720 @@
       <c r="Q2" s="2"/>
     </row>
     <row r="4" spans="1:17">
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="4"/>
+      <c r="D4" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="3"/>
-      <c r="D4" t="s">
+    </row>
+    <row r="5" spans="1:17">
+      <c r="B5" s="4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
-      <c r="B5" s="3" t="s">
+      <c r="C5" s="4"/>
+      <c r="D5" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="3"/>
-      <c r="D5" t="s">
+    </row>
+    <row r="6" spans="1:17">
+      <c r="B6" s="4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
-      <c r="B6" s="3" t="s">
+      <c r="C6" s="4"/>
+      <c r="D6" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="3"/>
-      <c r="D6" t="s">
+    </row>
+    <row r="8" spans="1:17" customHeight="1" ht="35">
+      <c r="B8" s="5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" customHeight="1" ht="35">
-      <c r="B8" s="4" t="s">
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="5" t="s">
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="6"/>
+    </row>
+    <row r="9" spans="1:17" customHeight="1" ht="22">
+      <c r="B9" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
-      <c r="O8" s="5"/>
-      <c r="P8" s="5"/>
-      <c r="Q8" s="5"/>
-    </row>
-    <row r="9" spans="1:17" customHeight="1" ht="22">
-      <c r="B9" s="6" t="s">
+      <c r="C9" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="D9" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="E9" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="F9" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="G9" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="G9" s="6" t="s">
+      <c r="H9" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="H9" s="6" t="s">
+      <c r="I9" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="I9" s="6" t="s">
+      <c r="J9" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="J9" s="6" t="s">
+      <c r="K9" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="K9" s="6" t="s">
+      <c r="L9" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="L9" s="6" t="s">
+      <c r="M9" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="M9" s="6" t="s">
+      <c r="N9" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="N9" s="6" t="s">
+      <c r="O9" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="O9" s="6" t="s">
+      <c r="P9" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="P9" s="6" t="s">
+      <c r="Q9" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="Q9" s="6" t="s">
+    </row>
+    <row r="10" spans="1:17" customHeight="1" ht="18">
+      <c r="B10" s="8" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" customHeight="1" ht="18">
-      <c r="B10" s="7" t="s">
+      <c r="C10" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="D10" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="E10" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="F10" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="H10" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="H10" s="7" t="s">
+      <c r="I10" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="I10" s="7" t="s">
+      <c r="J10" s="8">
+        <v>83</v>
+      </c>
+      <c r="K10" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="J10" s="7">
+      <c r="L10" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="M10" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="N10" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="O10" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="P10" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q10" s="8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" customHeight="1" ht="18">
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="I11" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="J11" s="8">
         <v>83</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="K11" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="L11" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="L10" s="7" t="s">
+      <c r="M11" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="M10" s="7" t="s">
+      <c r="N11" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="N10" s="7" t="s">
+      <c r="O11" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="P11" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q11" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="O10" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="P10" s="7" t="s">
+    </row>
+    <row r="12" spans="1:17" customHeight="1" ht="18">
+      <c r="G12" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="9"/>
+      <c r="P12" s="9"/>
+      <c r="Q12" s="9"/>
+    </row>
+    <row r="13" spans="1:17" customHeight="1" ht="18">
+      <c r="B13" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="G13" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="H13" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="I13" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="J13" s="10">
+        <v>33</v>
+      </c>
+      <c r="K13" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="L13" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="M13" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="N13" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="Q10" s="7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" customHeight="1" ht="18">
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7" t="s">
+      <c r="O13" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="P13" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q13" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" customHeight="1" ht="18">
+      <c r="G14" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="9"/>
+      <c r="P14" s="9"/>
+      <c r="Q14" s="9"/>
+    </row>
+    <row r="15" spans="1:17" customHeight="1" ht="18">
+      <c r="B15" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="H11" s="7" t="s">
+      <c r="I15" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="I11" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="J11" s="7">
-        <v>83</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="M11" s="7" t="s">
+      <c r="J15" s="8">
+        <v>77</v>
+      </c>
+      <c r="K15" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="L15" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="M15" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="N15" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="N11" s="7" t="s">
+      <c r="O15" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="P15" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q15" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="O11" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="P11" s="7" t="s">
+    </row>
+    <row r="16" spans="1:17" customHeight="1" ht="18">
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="H16" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="I16" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="J16" s="8">
+        <v>77</v>
+      </c>
+      <c r="K16" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="L16" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="M16" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="N16" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="Q11" s="7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" customHeight="1" ht="18">
-      <c r="G12" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="8"/>
-      <c r="M12" s="8"/>
-      <c r="N12" s="8"/>
-      <c r="O12" s="8"/>
-      <c r="P12" s="8"/>
-      <c r="Q12" s="8"/>
-    </row>
-    <row r="13" spans="1:17" customHeight="1" ht="18">
-      <c r="B13" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="F13" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="G13" s="9" t="s">
+      <c r="O16" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="P16" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q16" s="8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" customHeight="1" ht="18">
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="H17" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="H13" s="9" t="s">
+      <c r="I17" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="I13" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="J13" s="9">
-        <v>33</v>
-      </c>
-      <c r="K13" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="L13" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="M13" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="N13" s="9" t="s">
+      <c r="J17" s="8">
+        <v>77</v>
+      </c>
+      <c r="K17" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="L17" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="M17" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="N17" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="O17" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="P17" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q17" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="O13" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="P13" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q13" s="9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" customHeight="1" ht="18">
-      <c r="G14" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="8"/>
-      <c r="M14" s="8"/>
-      <c r="N14" s="8"/>
-      <c r="O14" s="8"/>
-      <c r="P14" s="8"/>
-      <c r="Q14" s="8"/>
-    </row>
-    <row r="15" spans="1:17" customHeight="1" ht="18">
-      <c r="B15" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="G15" s="7" t="s">
+    </row>
+    <row r="18" spans="1:17" customHeight="1" ht="18">
+      <c r="G18" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="9"/>
+      <c r="M18" s="9"/>
+      <c r="N18" s="9"/>
+      <c r="O18" s="9"/>
+      <c r="P18" s="9"/>
+      <c r="Q18" s="9"/>
+    </row>
+    <row r="20" spans="1:17" customHeight="1" ht="35">
+      <c r="B20" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="12"/>
+      <c r="L20" s="12"/>
+      <c r="M20" s="12"/>
+      <c r="N20" s="12"/>
+      <c r="O20" s="12"/>
+      <c r="P20" s="12"/>
+      <c r="Q20" s="12"/>
+    </row>
+    <row r="21" spans="1:17" customHeight="1" ht="22">
+      <c r="B21" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H21" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I21" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="J21" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L21" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M21" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="N21" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="O21" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q21" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" customHeight="1" ht="18">
+      <c r="B22" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="I22" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="J22" s="8">
+        <v>76</v>
+      </c>
+      <c r="K22" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="L22" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="M22" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="N22" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="O22" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="P22" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q22" s="8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" customHeight="1" ht="18">
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="H23" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="H15" s="7" t="s">
+      <c r="I23" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="I15" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="J15" s="7">
-        <v>77</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="M15" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="N15" s="7" t="s">
+      <c r="J23" s="8">
+        <v>1</v>
+      </c>
+      <c r="K23" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="L23" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="M23" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="N23" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="O23" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="P23" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q23" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="O15" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" customHeight="1" ht="18">
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7" t="s">
+    </row>
+    <row r="24" spans="1:17" customHeight="1" ht="18">
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="H16" s="7" t="s">
+      <c r="I24" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="I16" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="J16" s="7">
-        <v>77</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="M16" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="N16" s="7" t="s">
+      <c r="J24" s="8">
+        <v>1</v>
+      </c>
+      <c r="K24" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="L24" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="M24" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="N24" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="O24" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="P24" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q24" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="O16" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" customHeight="1" ht="18">
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7" t="s">
+    </row>
+    <row r="25" spans="1:17" customHeight="1" ht="18">
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="H25" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="H17" s="7" t="s">
+      <c r="I25" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="I17" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="J17" s="7">
-        <v>77</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="M17" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="N17" s="7" t="s">
+      <c r="J25" s="8">
+        <v>1</v>
+      </c>
+      <c r="K25" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="L25" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="M25" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="N25" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="O25" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="P25" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q25" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="O17" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" customHeight="1" ht="18">
-      <c r="G18" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="8"/>
-      <c r="L18" s="8"/>
-      <c r="M18" s="8"/>
-      <c r="N18" s="8"/>
-      <c r="O18" s="8"/>
-      <c r="P18" s="8"/>
-      <c r="Q18" s="8"/>
-    </row>
-    <row r="20" spans="1:17" customHeight="1" ht="35">
-      <c r="B20" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="11"/>
-      <c r="K20" s="11"/>
-      <c r="L20" s="11"/>
-      <c r="M20" s="11"/>
-      <c r="N20" s="11"/>
-      <c r="O20" s="11"/>
-      <c r="P20" s="11"/>
-      <c r="Q20" s="11"/>
-    </row>
-    <row r="21" spans="1:17" customHeight="1" ht="22">
-      <c r="B21" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F21" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G21" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H21" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="I21" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J21" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="K21" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="L21" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="M21" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="N21" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="O21" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="P21" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q21" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" customHeight="1" ht="18">
-      <c r="B22" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="H22" s="7" t="s">
+    </row>
+    <row r="26" spans="1:17" customHeight="1" ht="18">
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="H26" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="I26" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="J26" s="8">
+        <v>1</v>
+      </c>
+      <c r="K26" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="I22" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="J22" s="7">
-        <v>76</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="M22" s="7" t="s">
+      <c r="L26" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="N22" s="7" t="s">
+      <c r="M26" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="N26" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="O26" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="P26" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q26" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="O22" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" customHeight="1" ht="18">
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="H23" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="I23" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="J23" s="7">
-        <v>1</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="M23" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="N23" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="O23" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" customHeight="1" ht="18">
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="H24" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="I24" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="J24" s="7">
-        <v>1</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="M24" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="N24" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" customHeight="1" ht="18">
-      <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="H25" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="I25" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="J25" s="7">
-        <v>1</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="M25" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="N25" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="O25" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" customHeight="1" ht="18">
-      <c r="B26" s="7"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="H26" s="7" t="s">
+    </row>
+    <row r="27" spans="1:17" customHeight="1" ht="18">
+      <c r="G27" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="I26" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="J26" s="7">
-        <v>1</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="M26" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="N26" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="O26" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" customHeight="1" ht="18">
-      <c r="G27" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="H27" s="12"/>
-      <c r="I27" s="12"/>
-      <c r="J27" s="12"/>
-      <c r="K27" s="12"/>
-      <c r="L27" s="12"/>
-      <c r="M27" s="12"/>
-      <c r="N27" s="12"/>
-      <c r="O27" s="12"/>
-      <c r="P27" s="12"/>
-      <c r="Q27" s="12"/>
+      <c r="H27" s="13"/>
+      <c r="I27" s="13"/>
+      <c r="J27" s="13"/>
+      <c r="K27" s="13"/>
+      <c r="L27" s="13"/>
+      <c r="M27" s="13"/>
+      <c r="N27" s="13"/>
+      <c r="O27" s="13"/>
+      <c r="P27" s="13"/>
+      <c r="Q27" s="13"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:Q2"/>
+    <mergeCell ref="C2:Q2"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="B6:C6"/>
@@ -1490,5 +1516,6 @@
     <firstHeader/>
     <firstFooter/>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/app/functions/exports/4.xlsx
+++ b/app/functions/exports/4.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="76">
   <si>
     <t>PROPOSTA - OUTRA PRA APAGAR</t>
   </si>
@@ -26,7 +26,10 @@
     <t>Sem Agência / Sem Cliente</t>
   </si>
   <si>
-    <t xml:space="preserve">Período: </t>
+    <t>* CUB : Custo Unitário Bruto | CUL : Custo Unitário Líquido | CUBN : Custo Unitário Bruto - Negociado | CULN : Custo Unitário Líquido - Negociado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Período total: </t>
   </si>
   <si>
     <t>de 04/10/2017 a  27/11/2017</t>
@@ -35,13 +38,13 @@
     <t xml:space="preserve">Investimento total: </t>
   </si>
   <si>
-    <t>R$ 1.100,00</t>
+    <t>R$ 110.900,00</t>
   </si>
   <si>
     <t>ALRIGHT</t>
   </si>
   <si>
-    <t xml:space="preserve">Período: de 04/11/2017 a 15/11/2017 | Investimento total: R$ 600,00   </t>
+    <t xml:space="preserve">Período do veículo:  de 04/11/2017 a 15/11/2017   |   Investimento no veículo:  R$ 600,00   </t>
   </si>
   <si>
     <t>Produto</t>
@@ -74,19 +77,19 @@
     <t>Compra</t>
   </si>
   <si>
-    <t>CUB</t>
-  </si>
-  <si>
-    <t>CUL</t>
+    <t>CUB*</t>
+  </si>
+  <si>
+    <t>CUL*</t>
   </si>
   <si>
     <t>Desc.</t>
   </si>
   <si>
-    <t>CUBN</t>
-  </si>
-  <si>
-    <t>CULN</t>
+    <t>CUBN*</t>
+  </si>
+  <si>
+    <t>CULN*</t>
   </si>
   <si>
     <t>Tot. Liq.</t>
@@ -116,6 +119,9 @@
     <t>R$ 100,00</t>
   </si>
   <si>
+    <t xml:space="preserve">83 </t>
+  </si>
+  <si>
     <t>CPV 15s</t>
   </si>
   <si>
@@ -125,13 +131,13 @@
     <t>R$ 0,96</t>
   </si>
   <si>
-    <t>0,00%</t>
+    <t>0%</t>
   </si>
   <si>
     <t>R$ 80,00</t>
   </si>
   <si>
-    <t xml:space="preserve">Período total: de 04/11/2017 a 15/11/2017 - Investimento total: R$ 200,00   </t>
+    <t xml:space="preserve">Período:  de 04/11/2017 a 15/11/2017   -   Investimento:  R$ 200,00   </t>
   </si>
   <si>
     <t>Display</t>
@@ -140,6 +146,9 @@
     <t>Billboard e Interstitial</t>
   </si>
   <si>
+    <t xml:space="preserve">33 </t>
+  </si>
+  <si>
     <t>Diária</t>
   </si>
   <si>
@@ -149,7 +158,7 @@
     <t>R$ 2,40</t>
   </si>
   <si>
-    <t xml:space="preserve">Período total: de 04/11/2017 a 15/11/2017 - Investimento total: R$ 100,00   </t>
+    <t xml:space="preserve">Período:  de 04/11/2017 a 15/11/2017   -   Investimento:  R$ 100,00   </t>
   </si>
   <si>
     <t>Vídeo</t>
@@ -158,6 +167,9 @@
     <t>Alcance</t>
   </si>
   <si>
+    <t xml:space="preserve">77 </t>
+  </si>
+  <si>
     <t>CPC</t>
   </si>
   <si>
@@ -167,13 +179,13 @@
     <t>R$ 1,04</t>
   </si>
   <si>
-    <t xml:space="preserve">Período total: de 04/11/2017 a 15/11/2017 - Investimento total: R$ 300,00   </t>
+    <t xml:space="preserve">Período:  de 04/11/2017 a 15/11/2017   -   Investimento:  R$ 300,00   </t>
   </si>
   <si>
     <t>WAZE</t>
   </si>
   <si>
-    <t xml:space="preserve">Período: de 04/10/2017 a 27/11/2017 | Investimento total: R$ 500,00   </t>
+    <t xml:space="preserve">Período do veículo:  de 04/10/2017 a 27/11/2017   |   Investimento no veículo:  R$ 110.300,00   </t>
   </si>
   <si>
     <t>Waze</t>
@@ -197,6 +209,12 @@
     <t>15/10/2017</t>
   </si>
   <si>
+    <t>R$ 10.000,00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.576 </t>
+  </si>
+  <si>
     <t>CPV 3s</t>
   </si>
   <si>
@@ -206,16 +224,25 @@
     <t>R$ 1,06</t>
   </si>
   <si>
-    <t>R$ 132,00</t>
-  </si>
-  <si>
-    <t>R$ 105,60</t>
+    <t>R$ 8.000,00</t>
+  </si>
+  <si>
+    <t>R$ 100.000,00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">75.758 </t>
+  </si>
+  <si>
+    <t>R$ 80.000,00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">76 </t>
   </si>
   <si>
     <t>27/11/2017</t>
   </si>
   <si>
-    <t xml:space="preserve">Período total: de 04/10/2017 a 27/11/2017 - Investimento total: R$ 500,00   </t>
+    <t xml:space="preserve">Período:  de 04/10/2017 a 27/11/2017   -   Investimento:  R$ 110.300,00   </t>
   </si>
 </sst>
 </file>
@@ -223,7 +250,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <b val="0"/>
       <i val="0"/>
@@ -248,11 +275,29 @@
       <strike val="0"/>
       <u val="none"/>
       <sz val="11"/>
+      <color rgb="FF909090"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -282,6 +327,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFDABFF9"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFececec"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
@@ -289,6 +340,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFa5c2ce"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE8EFF2"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
@@ -341,7 +398,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -354,34 +411,37 @@
     <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="3" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="3" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="4" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="4" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="2" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="3" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="5" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="5" borderId="2" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="6" borderId="2" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="3" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="6" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="7" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="6" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="8" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
   </cellXfs>
@@ -728,13 +788,18 @@
   <cols>
     <col min="1" max="1" width="3" customWidth="true" style="0"/>
     <col min="2" max="2" width="15" customWidth="true" style="0"/>
+    <col min="3" max="3" width="18" customWidth="true" style="0"/>
+    <col min="4" max="4" width="18" customWidth="true" style="0"/>
+    <col min="5" max="5" width="15" customWidth="true" style="0"/>
     <col min="6" max="6" width="25" customWidth="true" style="0"/>
     <col min="7" max="7" width="12" customWidth="true" style="0"/>
     <col min="8" max="8" width="12" customWidth="true" style="0"/>
     <col min="9" max="9" width="20" customWidth="true" style="0"/>
+    <col min="10" max="10" width="15" customWidth="true" style="0"/>
     <col min="11" max="11" width="10" customWidth="true" style="0"/>
     <col min="12" max="12" width="10" customWidth="true" style="0"/>
     <col min="13" max="13" width="10" customWidth="true" style="0"/>
+    <col min="17" max="17" width="25" customWidth="true" style="0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" customHeight="1" ht="10"/>
@@ -759,720 +824,735 @@
       <c r="Q2" s="2"/>
     </row>
     <row r="4" spans="1:17">
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="4"/>
+      <c r="C4" s="5"/>
       <c r="D4" t="s">
         <v>2</v>
       </c>
+      <c r="F4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
     </row>
     <row r="5" spans="1:17">
-      <c r="B5" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="4"/>
+      <c r="B5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="5"/>
       <c r="D5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:17">
-      <c r="B6" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="4"/>
+      <c r="B6" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="5"/>
       <c r="D6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:17" customHeight="1" ht="35">
-      <c r="B8" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="6" t="s">
+      <c r="B8" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="6"/>
-      <c r="N8" s="6"/>
-      <c r="O8" s="6"/>
-      <c r="P8" s="6"/>
-      <c r="Q8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="7"/>
+      <c r="Q8" s="7"/>
     </row>
     <row r="9" spans="1:17" customHeight="1" ht="22">
-      <c r="B9" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="7" t="s">
+      <c r="B9" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="C9" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="D9" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="E9" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="G9" s="7" t="s">
+      <c r="F9" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="H9" s="7" t="s">
+      <c r="G9" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="I9" s="7" t="s">
+      <c r="H9" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="J9" s="7" t="s">
+      <c r="I9" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="J9" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="L9" s="7" t="s">
+      <c r="K9" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="M9" s="7" t="s">
+      <c r="L9" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="N9" s="7" t="s">
+      <c r="M9" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="O9" s="7" t="s">
+      <c r="N9" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="O9" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="Q9" s="7" t="s">
+      <c r="P9" s="8" t="s">
         <v>24</v>
       </c>
+      <c r="Q9" s="8" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="10" spans="1:17" customHeight="1" ht="18">
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="I10" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="J10" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="K10" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="L10" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="M10" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="N10" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="O10" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="P10" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q10" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" customHeight="1" ht="18">
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H11" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="I11" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="J11" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="K11" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="L11" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="M11" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="N11" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="O11" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="P11" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q11" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" customHeight="1" ht="22">
+      <c r="G12" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="10"/>
+      <c r="N12" s="10"/>
+      <c r="O12" s="10"/>
+      <c r="P12" s="10"/>
+      <c r="Q12" s="10"/>
+    </row>
+    <row r="13" spans="1:17" customHeight="1" ht="18">
+      <c r="B13" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H13" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="I13" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="J13" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="K13" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="L13" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="M13" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="N13" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="O13" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="P13" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q13" s="11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" customHeight="1" ht="22">
+      <c r="G14" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="10"/>
+      <c r="M14" s="10"/>
+      <c r="N14" s="10"/>
+      <c r="O14" s="10"/>
+      <c r="P14" s="10"/>
+      <c r="Q14" s="10"/>
+    </row>
+    <row r="15" spans="1:17" customHeight="1" ht="18">
+      <c r="B15" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H15" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="I15" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="J15" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="K15" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="L15" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="M15" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="N15" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="O15" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="P15" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q15" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" customHeight="1" ht="18">
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H16" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="I16" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="J16" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="K16" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="L16" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="M16" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="N16" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="O16" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="P16" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q16" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" customHeight="1" ht="18">
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H17" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="I17" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="J17" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="K17" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="L17" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="M17" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="N17" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="O17" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="P17" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q17" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" customHeight="1" ht="22">
+      <c r="G18" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="10"/>
+      <c r="M18" s="10"/>
+      <c r="N18" s="10"/>
+      <c r="O18" s="10"/>
+      <c r="P18" s="10"/>
+      <c r="Q18" s="10"/>
+    </row>
+    <row r="20" spans="1:17" customHeight="1" ht="35">
+      <c r="B20" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="13"/>
+      <c r="L20" s="13"/>
+      <c r="M20" s="13"/>
+      <c r="N20" s="13"/>
+      <c r="O20" s="13"/>
+      <c r="P20" s="13"/>
+      <c r="Q20" s="13"/>
+    </row>
+    <row r="21" spans="1:17" customHeight="1" ht="22">
+      <c r="B21" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G21" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H21" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I21" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="J21" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="K21" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="L21" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="M21" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="N21" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="O21" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="P21" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q21" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="G10" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="H10" s="8" t="s">
+    </row>
+    <row r="22" spans="1:17" customHeight="1" ht="18">
+      <c r="B22" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="G22" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="H22" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="I22" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="J22" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="K22" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="L22" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="M22" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="N22" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="O22" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="P22" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q22" s="9" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" customHeight="1" ht="18">
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="I10" s="8" t="s">
+      <c r="H23" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="J10" s="8">
-        <v>83</v>
-      </c>
-      <c r="K10" s="8" t="s">
+      <c r="I23" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="J23" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="K23" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="L23" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="M23" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="N23" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="O23" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="P23" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q23" s="9" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" customHeight="1" ht="18">
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H24" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="I24" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="L10" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="M10" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="N10" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="O10" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="P10" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q10" s="8" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" customHeight="1" ht="18">
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="H11" s="8" t="s">
+      <c r="J24" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="K24" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="L24" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="M24" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="N24" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="O24" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="P24" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q24" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" customHeight="1" ht="18">
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="I11" s="8" t="s">
+      <c r="H25" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="J11" s="8">
-        <v>83</v>
-      </c>
-      <c r="K11" s="8" t="s">
+      <c r="I25" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="L11" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="M11" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="N11" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="O11" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="P11" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q11" s="8" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" customHeight="1" ht="18">
-      <c r="G12" s="9" t="s">
+      <c r="J25" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="K25" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="L25" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="M25" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="N25" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9"/>
-      <c r="L12" s="9"/>
-      <c r="M12" s="9"/>
-      <c r="N12" s="9"/>
-      <c r="O12" s="9"/>
-      <c r="P12" s="9"/>
-      <c r="Q12" s="9"/>
-    </row>
-    <row r="13" spans="1:17" customHeight="1" ht="18">
-      <c r="B13" s="10" t="s">
+      <c r="O25" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="P25" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q25" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C13" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="F13" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="G13" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="H13" s="10" t="s">
+    </row>
+    <row r="26" spans="1:17" customHeight="1" ht="18">
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="I13" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="J13" s="10">
+      <c r="H26" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="I26" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="K13" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="L13" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="M13" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="N13" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="O13" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="P13" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q13" s="10" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" customHeight="1" ht="18">
-      <c r="G14" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="9"/>
-      <c r="M14" s="9"/>
-      <c r="N14" s="9"/>
-      <c r="O14" s="9"/>
-      <c r="P14" s="9"/>
-      <c r="Q14" s="9"/>
-    </row>
-    <row r="15" spans="1:17" customHeight="1" ht="18">
-      <c r="B15" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="F15" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="G15" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="I15" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="J15" s="8">
-        <v>77</v>
-      </c>
-      <c r="K15" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="L15" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="M15" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="N15" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="O15" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="P15" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q15" s="8" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" customHeight="1" ht="18">
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="H16" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="I16" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="J16" s="8">
-        <v>77</v>
-      </c>
-      <c r="K16" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="L16" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="M16" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="N16" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="O16" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="P16" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q16" s="8" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" customHeight="1" ht="18">
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="H17" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="I17" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="J17" s="8">
-        <v>77</v>
-      </c>
-      <c r="K17" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="L17" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="M17" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="N17" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="O17" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="P17" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q17" s="8" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" customHeight="1" ht="18">
-      <c r="G18" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="9"/>
-      <c r="K18" s="9"/>
-      <c r="L18" s="9"/>
-      <c r="M18" s="9"/>
-      <c r="N18" s="9"/>
-      <c r="O18" s="9"/>
-      <c r="P18" s="9"/>
-      <c r="Q18" s="9"/>
-    </row>
-    <row r="20" spans="1:17" customHeight="1" ht="35">
-      <c r="B20" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="12"/>
-      <c r="I20" s="12"/>
-      <c r="J20" s="12"/>
-      <c r="K20" s="12"/>
-      <c r="L20" s="12"/>
-      <c r="M20" s="12"/>
-      <c r="N20" s="12"/>
-      <c r="O20" s="12"/>
-      <c r="P20" s="12"/>
-      <c r="Q20" s="12"/>
-    </row>
-    <row r="21" spans="1:17" customHeight="1" ht="22">
-      <c r="B21" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="H21" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="I21" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M21" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="N21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" customHeight="1" ht="18">
-      <c r="B22" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="E22" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="F22" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="G22" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="H22" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="I22" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="J22" s="8">
-        <v>76</v>
-      </c>
-      <c r="K22" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="L22" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="M22" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="N22" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="O22" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="P22" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q22" s="8" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" customHeight="1" ht="18">
-      <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="H23" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="I23" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="J23" s="8">
-        <v>1</v>
-      </c>
-      <c r="K23" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="L23" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="M23" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="N23" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="O23" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="P23" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q23" s="8" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" customHeight="1" ht="18">
-      <c r="B24" s="8"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="I24" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="J24" s="8">
-        <v>1</v>
-      </c>
-      <c r="K24" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="L24" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="M24" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="N24" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="O24" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="P24" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q24" s="8" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" customHeight="1" ht="18">
-      <c r="B25" s="8"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="H25" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="I25" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="J25" s="8">
-        <v>1</v>
-      </c>
-      <c r="K25" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="L25" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="M25" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="N25" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="O25" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="P25" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q25" s="8" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" customHeight="1" ht="18">
-      <c r="B26" s="8"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="H26" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="I26" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="J26" s="8">
-        <v>1</v>
-      </c>
-      <c r="K26" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="L26" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="M26" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="N26" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="O26" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="P26" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q26" s="8" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" customHeight="1" ht="18">
-      <c r="G27" s="13" t="s">
+      <c r="J26" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="K26" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="H27" s="13"/>
-      <c r="I27" s="13"/>
-      <c r="J27" s="13"/>
-      <c r="K27" s="13"/>
-      <c r="L27" s="13"/>
-      <c r="M27" s="13"/>
-      <c r="N27" s="13"/>
-      <c r="O27" s="13"/>
-      <c r="P27" s="13"/>
-      <c r="Q27" s="13"/>
+      <c r="L26" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="M26" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="N26" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="O26" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="P26" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q26" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" customHeight="1" ht="22">
+      <c r="G27" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="H27" s="14"/>
+      <c r="I27" s="14"/>
+      <c r="J27" s="14"/>
+      <c r="K27" s="14"/>
+      <c r="L27" s="14"/>
+      <c r="M27" s="14"/>
+      <c r="N27" s="14"/>
+      <c r="O27" s="14"/>
+      <c r="P27" s="14"/>
+      <c r="Q27" s="14"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
     <mergeCell ref="C2:Q2"/>
+    <mergeCell ref="F4:Q4"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="B6:C6"/>
